--- a/biology/Botanique/Catalpa/Catalpa.xlsx
+++ b/biology/Botanique/Catalpa/Catalpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catalpa
 Catalpa est un genre d'arbres, les catalpas, appartenant à la famille des Bignoniacées. Les espèces sont originaires d'Amérique du Nord et d'Asie de l'Est. Cette essence sert essentiellement à l'ornement, notamment le Catalpa commun (Catalpa bignonioides).
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les catalpas arborent de très grandes feuilles et des fleurs en grosses grappes, auxquelles succèdent en fin d'été de longues gousses pleines de graines (en réalité des capsules).
 	Différents aspects du Catalpa commun
@@ -555,16 +569,88 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit en 1777 par Giovanni Antonio Scopoli.
-En classification phylogénétique APG III (2009)[2] le genre Catalpa est assigné à la famille des Bignoniaceae, comme c'était déjà le cas en classification classique de Cronquist (1981)[3].
-Dans le parc du château de Versailles subsiste un des premiers catalpas introduits en France, qui serait âgé de plus de 290 ans[4].
-Étymologie
-« C’est un des rares arbres qui a (sic) conservé son nom d’origine, donné par les Indiens Cherokee qui occupaient ce territoire et en consommaient les graines. »[4]
-En langue cherokee, « catalpa » désigne une variété de haricot. L'arbre, introduit en Europe au début du XVIIIe siècle, a été ainsi nommé par les botanistes, en raison de l'aspect de ses gousses[5].
-Liste d'espèces
-Selon GRIN            (8 juillet 2017)[6] :
+En classification phylogénétique APG III (2009) le genre Catalpa est assigné à la famille des Bignoniaceae, comme c'était déjà le cas en classification classique de Cronquist (1981).
+Dans le parc du château de Versailles subsiste un des premiers catalpas introduits en France, qui serait âgé de plus de 290 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Catalpa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catalpa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« C’est un des rares arbres qui a (sic) conservé son nom d’origine, donné par les Indiens Cherokee qui occupaient ce territoire et en consommaient les graines. »
+En langue cherokee, « catalpa » désigne une variété de haricot. L'arbre, introduit en Europe au début du XVIIIe siècle, a été ainsi nommé par les botanistes, en raison de l'aspect de ses gousses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Catalpa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catalpa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (8 juillet 2017) :
 Catalpa bignonioides Walter
 Catalpa bungei C. A. Mey.
 Catalpa × erubescens Carrière
@@ -573,7 +659,7 @@
 Catalpa longissima (Jacq.) Dum. Cours.
 Catalpa ovata G. Don
 Catalpa speciosa E. Y. Teas
-Selon World Checklist of Selected Plant Families (WCSP)  (8 juillet 2017)[7] :
+Selon World Checklist of Selected Plant Families (WCSP)  (8 juillet 2017) :
 Catalpa bignonioides Walter (1788)
 Catalpa brevipes Urb. (1927)
 Catalpa bungei C.A.Mey. (1837)
@@ -585,7 +671,7 @@
 Catalpa purpurea Griseb. (1866)
 Catalpa speciosa Teas (1875)
 Espèces et synonymes selon Tropicos
-Selon Tropicos                                           (8 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (8 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Catalpa amena Raf.
 Catalpa arborea Baill.
 Catalpa bignonioides Walter
@@ -631,31 +717,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Catalpa</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Catalpa</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Aspects culturels</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il dégagerait une odeur qui éloignerait les moustiques et les mouches.
 </t>
